--- a/sleep-data.xlsx
+++ b/sleep-data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="268" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7091C1-5367-134C-8422-3264574481B4}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB0BD2C4-CC22-47D9-B9CF-E68574665D8D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,15 @@
   <si>
     <t>Evening light exposure</t>
   </si>
+  <si>
+    <t>Dinner time</t>
+  </si>
+  <si>
+    <t>Morning light exposure</t>
+  </si>
+  <si>
+    <t>Wind-down routine</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,20 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.43359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.98828125" customWidth="1"/>
-    <col min="3" max="3" width="20.4453125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +433,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>45257</v>
       </c>
@@ -435,7 +454,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>45258</v>
       </c>
@@ -446,7 +465,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>45259</v>
       </c>
@@ -457,7 +476,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>45260</v>
       </c>
@@ -468,7 +487,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>45261</v>
       </c>
@@ -479,7 +498,7 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>45262</v>
       </c>
@@ -490,7 +509,7 @@
         <v>0.95138888888888884</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>45263</v>
       </c>
@@ -501,7 +520,7 @@
         <v>0.92361111111111116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>45264</v>
       </c>
@@ -512,7 +531,7 @@
         <v>0.92361111111111116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>45265</v>
       </c>
@@ -523,7 +542,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>45266</v>
       </c>
@@ -534,7 +553,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>45267</v>
       </c>
@@ -545,7 +564,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>45268</v>
       </c>
@@ -556,7 +575,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>45269</v>
       </c>
@@ -567,7 +586,7 @@
         <v>0.99930555555555556</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>45270</v>
       </c>
@@ -578,7 +597,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>45271</v>
       </c>
@@ -589,7 +608,7 @@
         <v>0.99930555555555556</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45272</v>
       </c>
@@ -600,7 +619,7 @@
         <v>0.99930555555555556</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45273</v>
       </c>
@@ -611,7 +630,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45274</v>
       </c>
@@ -622,7 +641,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45275</v>
       </c>
@@ -633,7 +652,7 @@
         <v>0.92361111111111116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>45276</v>
       </c>
@@ -644,7 +663,7 @@
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45277</v>
       </c>
@@ -655,7 +674,7 @@
         <v>0.95763888888888893</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>45278</v>
       </c>
@@ -666,7 +685,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>45279</v>
       </c>
@@ -677,7 +696,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>45280</v>
       </c>
@@ -688,7 +707,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>45281</v>
       </c>
@@ -699,7 +718,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>45282</v>
       </c>
@@ -710,7 +729,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>45283</v>
       </c>
@@ -721,7 +740,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>45284</v>
       </c>
@@ -732,7 +751,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>45285</v>
       </c>
@@ -743,7 +762,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>45286</v>
       </c>
@@ -754,7 +773,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>45287</v>
       </c>
@@ -765,7 +784,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>45288</v>
       </c>
@@ -776,7 +795,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>45289</v>
       </c>
@@ -787,7 +806,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>45290</v>
       </c>
@@ -798,7 +817,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>45291</v>
       </c>
@@ -809,7 +828,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>45292</v>
       </c>
@@ -820,7 +839,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>45293</v>
       </c>
@@ -831,7 +850,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>45294</v>
       </c>
@@ -842,7 +861,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>45295</v>
       </c>
@@ -853,7 +872,7 @@
         <v>0.96180555555555547</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>45296</v>
       </c>
@@ -864,7 +883,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>45297</v>
       </c>
@@ -875,7 +894,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>45298</v>
       </c>
@@ -886,7 +905,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>45299</v>
       </c>
@@ -897,7 +916,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>45300</v>
       </c>
@@ -908,7 +927,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45301</v>
       </c>
@@ -919,7 +938,7 @@
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45302</v>
       </c>
@@ -930,7 +949,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>45303</v>
       </c>
@@ -941,7 +960,7 @@
         <v>0.99930555555555556</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>45304</v>
       </c>
@@ -952,7 +971,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>45305</v>
       </c>
@@ -963,7 +982,7 @@
         <v>0.92013888888888884</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>45306</v>
       </c>
@@ -974,7 +993,7 @@
         <v>0.99930555555555556</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>45307</v>
       </c>
@@ -985,7 +1004,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>45308</v>
       </c>
@@ -996,7 +1015,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>45309</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>45310</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>45311</v>
       </c>
@@ -1029,7 +1048,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>45312</v>
       </c>
@@ -1040,7 +1059,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>45313</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>45314</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>45315</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>45316</v>
       </c>
@@ -1084,7 +1103,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>45317</v>
       </c>
@@ -1095,7 +1114,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>45318</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>45319</v>
       </c>
@@ -1117,7 +1136,7 @@
         <v>0.94097222222222221</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>45320</v>
       </c>
@@ -1128,7 +1147,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>45321</v>
       </c>
@@ -1139,7 +1158,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>45322</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>45323</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>0.92013888888888884</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>45324</v>
       </c>
@@ -1172,7 +1191,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>45325</v>
       </c>
@@ -1183,7 +1202,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>45326</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>0.92013888888888884</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>45327</v>
       </c>
@@ -1205,7 +1224,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>45328</v>
       </c>
@@ -1216,7 +1235,7 @@
         <v>0.92361111111111116</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>45329</v>
       </c>
@@ -1227,7 +1246,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>45330</v>
       </c>
@@ -1238,7 +1257,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>45331</v>
       </c>
@@ -1249,7 +1268,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>45332</v>
       </c>
@@ -1260,7 +1279,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>45333</v>
       </c>
@@ -1271,7 +1290,7 @@
         <v>0.93055555555555547</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>45334</v>
       </c>
@@ -1282,7 +1301,7 @@
         <v>0.87847222222222221</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>45335</v>
       </c>
@@ -1293,7 +1312,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>45336</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>0.88194444444444453</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>45337</v>
       </c>
@@ -1315,7 +1334,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45338</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>0.88194444444444442</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>45339</v>
       </c>
@@ -1335,6 +1354,403 @@
       </c>
       <c r="C84" s="3">
         <v>0.90625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B92" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.46527777777777779</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.36805555555555558</v>
       </c>
     </row>
   </sheetData>
